--- a/fastexcel-test/src/test/resources/fill/annotation.xlsx
+++ b/fastexcel-test/src/test/resources/fill/annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/easyexcel-core/src/test/resources/fill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Documents/GitHub/fastexcel/fastexcel-test/src/test/resources/fill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0FC88C-C841-7644-9096-435555C7817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A522A1E0-DDAE-EC4E-B7B4-0011D901B3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="4240" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>字符串1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{.number}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -47,19 +36,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{.date}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{.image}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +428,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -440,36 +441,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
